--- a/to-do.xlsx
+++ b/to-do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CEBD3B-7409-45DC-BB62-9F1B727FB3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC797A-2F67-4A88-876C-686D13C407A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,15 +694,18 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
       </c>
       <c r="F11">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,15 +719,18 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
       </c>
       <c r="F12">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -738,15 +744,18 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
       </c>
       <c r="F13">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,15 +769,18 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
       </c>
       <c r="F14">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,15 +794,18 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
       </c>
       <c r="F15">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -804,15 +819,18 @@
         <v>24</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
       </c>
       <c r="F16">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,13 +846,16 @@
       <c r="D17">
         <v>20</v>
       </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
       <c r="F17">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -958,15 +979,18 @@
         <v>20</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
       </c>
       <c r="F23">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -980,15 +1004,18 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
       </c>
       <c r="F24">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,15 +1029,18 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
       </c>
       <c r="F25">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1959,7 +1989,7 @@
       </c>
       <c r="B74">
         <f>SUM(Table1[Estimation(en min)])</f>
-        <v>1695</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -1968,7 +1998,7 @@
       </c>
       <c r="B75">
         <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>188.5</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,7 +2007,7 @@
       </c>
       <c r="B76">
         <f>SUM(Table1[Reste à faire(en min)])</f>
-        <v>1506.5</v>
+        <v>1259.5</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -1986,7 +2016,7 @@
       </c>
       <c r="B77" s="1">
         <f>B75/(B76+B75)</f>
-        <v>0.1112094395280236</v>
+        <v>0.21083959899749374</v>
       </c>
     </row>
   </sheetData>

--- a/to-do.xlsx
+++ b/to-do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC797A-2F67-4A88-876C-686D13C407A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6A284C-7869-4AF8-B43C-C82E7B05C546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
   <si>
     <t>Nom :</t>
   </si>
@@ -193,8 +193,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}" name="Table1" displayName="Table1" ref="A4:G71" totalsRowShown="0">
-  <autoFilter ref="A4:G71" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}" name="Table1" displayName="Table1" ref="A4:G62" totalsRowShown="0">
+  <autoFilter ref="A4:G62" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C47A3DC0-1DE9-47A1-9297-CD4EF6D5EC02}" name="Categorie"/>
     <tableColumn id="2" xr3:uid="{2F4DF2F2-3256-482B-AB21-4A9C821BC50E}" name="Tache"/>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,18 +844,18 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -869,15 +869,18 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
       </c>
       <c r="F18">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,15 +894,18 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
       </c>
       <c r="F19">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -913,15 +919,18 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
       <c r="F20">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -935,15 +944,18 @@
         <v>22</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
       </c>
       <c r="F21">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,13 +971,16 @@
       <c r="D22">
         <v>30</v>
       </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
       <c r="F22">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,15 +1069,18 @@
         <v>20</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
       </c>
       <c r="F26">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1076,15 +1094,18 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
       </c>
       <c r="F27">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,15 +1119,18 @@
         <v>24</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
       </c>
       <c r="F28">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,7 +1333,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -1331,7 +1355,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -1353,7 +1377,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -1375,7 +1399,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -1397,7 +1421,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -1419,7 +1443,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -1441,7 +1465,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -1463,7 +1487,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -1485,7 +1509,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -1507,7 +1531,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
@@ -1529,7 +1553,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -1551,7 +1575,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -1573,7 +1597,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -1595,7 +1619,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -1617,7 +1641,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
@@ -1639,7 +1663,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -1661,7 +1685,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -1683,7 +1707,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -1705,20 +1729,20 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F56">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G56" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
@@ -1726,297 +1750,99 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57">
-        <v>30</v>
-      </c>
       <c r="F57">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G57" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58">
-        <v>30</v>
-      </c>
       <c r="F58">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G58" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59">
-        <v>20</v>
-      </c>
       <c r="F59">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G59" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60">
-        <v>30</v>
-      </c>
       <c r="F60">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G60" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61">
-        <v>30</v>
-      </c>
       <c r="F61">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G61" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62">
-        <v>20</v>
-      </c>
       <c r="F62">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G62" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63">
-        <v>30</v>
-      </c>
-      <c r="F63">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G63" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64">
-        <v>30</v>
-      </c>
-      <c r="F64">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G64" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65">
-        <v>30</v>
-      </c>
-      <c r="F65">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G65" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F66">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F67">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F68">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F70">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F71">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
         <v>17</v>
       </c>
-      <c r="B74">
+      <c r="B65">
         <f>SUM(Table1[Estimation(en min)])</f>
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>18</v>
       </c>
-      <c r="B75">
+      <c r="B66">
         <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>336.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+        <v>454.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>19</v>
       </c>
-      <c r="B76">
+      <c r="B67">
         <f>SUM(Table1[Reste à faire(en min)])</f>
-        <v>1259.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+        <v>786.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="1">
-        <f>B75/(B76+B75)</f>
-        <v>0.21083959899749374</v>
+      <c r="B68" s="1">
+        <f>B66/(B67+B66)</f>
+        <v>0.36623690572119261</v>
       </c>
     </row>
   </sheetData>

--- a/to-do.xlsx
+++ b/to-do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6A284C-7869-4AF8-B43C-C82E7B05C546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A9E989-CA11-42DA-81D7-73A3ED7383DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
   <si>
     <t>Nom :</t>
   </si>
@@ -114,16 +114,46 @@
     <t>HeureSup</t>
   </si>
   <si>
-    <t>Repetition</t>
-  </si>
-  <si>
-    <t>HeureMajoration</t>
-  </si>
-  <si>
-    <t>Utilisateur</t>
-  </si>
-  <si>
-    <t>CheckAdmin</t>
+    <t>Modification Script</t>
+  </si>
+  <si>
+    <t>Majoration</t>
+  </si>
+  <si>
+    <t>Semaine</t>
+  </si>
+  <si>
+    <t>Nouvelle Semaine</t>
+  </si>
+  <si>
+    <t>JourSemaine</t>
+  </si>
+  <si>
+    <t>Insertion Donnée</t>
+  </si>
+  <si>
+    <t>DateCalendrier</t>
+  </si>
+  <si>
+    <t>Pointage</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Fiche Travail</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle Semaine </t>
   </si>
 </sst>
 </file>
@@ -193,12 +223,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}" name="Table1" displayName="Table1" ref="A4:G62" totalsRowShown="0">
-  <autoFilter ref="A4:G62" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}" name="Table1" displayName="Table1" ref="A4:G64" totalsRowShown="0">
+  <autoFilter ref="A4:G64" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C47A3DC0-1DE9-47A1-9297-CD4EF6D5EC02}" name="Categorie"/>
     <tableColumn id="2" xr3:uid="{2F4DF2F2-3256-482B-AB21-4A9C821BC50E}" name="Tache"/>
-    <tableColumn id="3" xr3:uid="{CA74A9D4-C3F5-40FF-B5ED-593966F84889}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{6B7A2F01-97B1-4986-A537-2BF55F3FBE45}" name="Type"/>
     <tableColumn id="4" xr3:uid="{DD54A85B-2148-4AD3-B4E1-98FF9501112E}" name="Estimation(en min)"/>
     <tableColumn id="5" xr3:uid="{EB39F6E0-1CB3-4393-8CBE-29369CB980FA}" name="Temps passé(en min)"/>
     <tableColumn id="6" xr3:uid="{F36128C2-A868-4986-B098-6FEAED5A4A47}" name="Reste à faire(en min)" dataDxfId="0">
@@ -475,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,19 +572,20 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <f>47.5+21</f>
+        <v>68.5</v>
       </c>
       <c r="E5">
-        <f>12.5+11</f>
-        <v>23.5</v>
+        <f>68.5</f>
+        <v>68.5</v>
       </c>
       <c r="F5">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0.39166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -565,13 +596,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -609,19 +640,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -640,14 +671,13 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <f>13+19</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -666,13 +696,14 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <f>13+19</f>
+        <v>32</v>
       </c>
       <c r="F10">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -685,19 +716,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -716,13 +747,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
       <c r="E12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -741,13 +772,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -763,16 +794,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -791,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -816,13 +847,13 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -838,16 +869,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -863,16 +894,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -891,13 +922,13 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -910,19 +941,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -935,19 +966,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -966,13 +997,13 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -988,16 +1019,16 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -1013,16 +1044,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F24">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -1041,13 +1072,13 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -1063,16 +1094,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -1088,16 +1119,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -1113,16 +1144,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -1135,68 +1166,77 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
       </c>
       <c r="F29">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
       </c>
       <c r="F30">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>21</v>
       </c>
       <c r="F31">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1204,21 +1244,24 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>27</v>
       </c>
       <c r="F32">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,21 +1269,24 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
       </c>
       <c r="F33">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1248,21 +1294,24 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="E34">
+        <v>52</v>
       </c>
       <c r="F34">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1270,21 +1319,24 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
       </c>
       <c r="F35">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,21 +1344,24 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
       </c>
       <c r="F36">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1314,109 +1369,124 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
       </c>
       <c r="F37">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
       </c>
       <c r="F38">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
       </c>
       <c r="F39">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
       </c>
       <c r="F40">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="E41">
+        <v>52</v>
       </c>
       <c r="F41">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,21 +1494,24 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
       </c>
       <c r="F42">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1449,84 +1522,96 @@
         <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
       </c>
       <c r="F43">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
       </c>
       <c r="F44">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
       </c>
       <c r="F45">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
       </c>
       <c r="F46">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1534,21 +1619,24 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
       </c>
       <c r="F47">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1556,21 +1644,24 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
       </c>
       <c r="F48">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1578,21 +1669,24 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
       </c>
       <c r="F49">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1603,18 +1697,21 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
       </c>
       <c r="F50">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1625,36 +1722,39 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
       </c>
       <c r="F51">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F52">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
@@ -1663,20 +1763,20 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F53">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G53" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
@@ -1685,13 +1785,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54">
         <v>30</v>
@@ -1707,20 +1807,20 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F55">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G55" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
@@ -1729,13 +1829,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D56">
         <v>30</v>
@@ -1750,99 +1850,218 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
       <c r="F57">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
+        <v>30</v>
+      </c>
+      <c r="G57" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
       <c r="F58">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
+      </c>
+      <c r="G58" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>30</v>
+      </c>
       <c r="F59">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
+        <v>30</v>
+      </c>
+      <c r="G59" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
       <c r="F60">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
+        <v>30</v>
+      </c>
+      <c r="G60" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
       <c r="F61">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
       <c r="F62">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65">
-        <f>SUM(Table1[Estimation(en min)])</f>
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66">
-        <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>454.5</v>
+        <v>30</v>
+      </c>
+      <c r="G62" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="F63">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>30</v>
+      </c>
+      <c r="G63" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64">
+        <v>43</v>
+      </c>
+      <c r="E64">
+        <v>43</v>
+      </c>
+      <c r="F64">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <f>SUM(Table1[Reste à faire(en min)])</f>
-        <v>786.5</v>
+        <f>SUM(Table1[Estimation(en min)])</f>
+        <v>1145.5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <f>SUM(Table1[Temps passé(en min)])</f>
+        <v>825.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <f>SUM(Table1[Reste à faire(en min)])</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="1">
-        <f>B66/(B67+B66)</f>
-        <v>0.36623690572119261</v>
+      <c r="B70" s="1">
+        <f>B68/(B69+B68)</f>
+        <v>0.7206460061108686</v>
       </c>
     </row>
   </sheetData>

--- a/to-do.xlsx
+++ b/to-do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A9E989-CA11-42DA-81D7-73A3ED7383DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C62D5-13A7-4BCC-9D63-B4E24AD3BE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
   <si>
     <t>Nom :</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Insertion Donnée</t>
   </si>
   <si>
-    <t>DateCalendrier</t>
-  </si>
-  <si>
     <t>Pointage</t>
   </si>
   <si>
@@ -154,6 +151,33 @@
   </si>
   <si>
     <t xml:space="preserve">Nouvelle Semaine </t>
+  </si>
+  <si>
+    <t>(Annulé)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Fiche de Paie</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>EtatStatistique</t>
+  </si>
+  <si>
+    <t>EmployeLabel</t>
+  </si>
+  <si>
+    <t>FindById</t>
+  </si>
+  <si>
+    <t>Vue</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -223,9 +247,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}" name="Table1" displayName="Table1" ref="A4:G64" totalsRowShown="0">
-  <autoFilter ref="A4:G64" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}" name="Table1" displayName="Table1" ref="A4:H69" totalsRowShown="0">
+  <autoFilter ref="A4:H69" xr:uid="{4AC69C44-96A7-4BDA-971F-66B38F32833F}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C47A3DC0-1DE9-47A1-9297-CD4EF6D5EC02}" name="Categorie"/>
     <tableColumn id="2" xr3:uid="{2F4DF2F2-3256-482B-AB21-4A9C821BC50E}" name="Tache"/>
     <tableColumn id="3" xr3:uid="{6B7A2F01-97B1-4986-A537-2BF55F3FBE45}" name="Type"/>
@@ -237,6 +261,7 @@
     <tableColumn id="7" xr3:uid="{E90FA0EF-BAB9-4A53-915F-ED97D7786F4E}" name="Avancement" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{CB3F8FF0-F533-4D67-A68C-549E999EF584}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +547,7 @@
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -538,7 +563,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -560,8 +585,11 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -572,12 +600,10 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <f>47.5+21</f>
-        <v>68.5</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <f>68.5</f>
-        <v>68.5</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -588,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -599,10 +625,10 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -613,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -638,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -663,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -688,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -714,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -739,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -764,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -789,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -814,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -839,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -897,7 +923,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1147,7 +1173,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1264,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1289,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1314,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1339,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1364,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1389,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -1414,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1439,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1489,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1514,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -1539,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -1564,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -1589,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1613,13 +1639,16 @@
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
         <v>22</v>
@@ -1638,8 +1667,11 @@
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1663,8 +1695,11 @@
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -1688,8 +1723,11 @@
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -1713,8 +1751,11 @@
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -1738,233 +1779,266 @@
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
       </c>
       <c r="F52">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="E53">
+        <v>21</v>
       </c>
       <c r="F53">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="D54">
-        <v>30</v>
-      </c>
-      <c r="F54">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G54" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55">
+        <v>96</v>
+      </c>
+      <c r="E55">
+        <v>96</v>
+      </c>
+      <c r="F55">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" t="s">
         <v>20</v>
       </c>
-      <c r="D55">
-        <v>20</v>
-      </c>
-      <c r="F55">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G55" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" t="s">
-        <v>22</v>
-      </c>
       <c r="D56">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>11</v>
       </c>
       <c r="F56">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="E57">
+        <v>38</v>
       </c>
       <c r="F57">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="E58">
+        <v>26</v>
       </c>
       <c r="F58">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
       </c>
       <c r="F59">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E60">
+        <v>25</v>
       </c>
       <c r="F60">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
         <v>39</v>
-      </c>
-      <c r="B61" t="s">
-        <v>40</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>24</v>
       </c>
       <c r="F61">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
         <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
@@ -1972,96 +2046,218 @@
       <c r="D62">
         <v>30</v>
       </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
       <c r="F62">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
         <v>39</v>
-      </c>
-      <c r="B63" t="s">
-        <v>40</v>
       </c>
       <c r="C63" t="s">
         <v>24</v>
       </c>
       <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
+      </c>
+      <c r="F63">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>32</v>
+      </c>
+      <c r="E65">
+        <v>32</v>
+      </c>
+      <c r="F65">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+      <c r="F66">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>20</v>
+      </c>
+      <c r="G66" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67">
         <v>30</v>
       </c>
-      <c r="F63">
+      <c r="F67">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
         <v>30</v>
       </c>
-      <c r="G63" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64">
+      <c r="G67" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>30</v>
+      </c>
+      <c r="G68" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69">
         <v>43</v>
       </c>
-      <c r="E64">
+      <c r="E69">
         <v>43</v>
       </c>
-      <c r="F64">
-        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="F69">
+        <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>17</v>
       </c>
-      <c r="B67">
+      <c r="B72">
         <f>SUM(Table1[Estimation(en min)])</f>
-        <v>1145.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>18</v>
       </c>
-      <c r="B68">
+      <c r="B73">
         <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>825.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>19</v>
       </c>
-      <c r="B69">
+      <c r="B74">
         <f>SUM(Table1[Reste à faire(en min)])</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="1">
-        <f>B68/(B69+B68)</f>
-        <v>0.7206460061108686</v>
+      <c r="B75" s="1">
+        <f>B73/(B74+B73)</f>
+        <v>0.93850883935434282</v>
       </c>
     </row>
   </sheetData>

--- a/to-do.xlsx
+++ b/to-do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C62D5-13A7-4BCC-9D63-B4E24AD3BE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031BA9A2-63A1-459C-BAF3-95CEFAC3B5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,10 +2094,10 @@
         <v>24</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F64">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2144,15 +2144,18 @@
         <v>20</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
       </c>
       <c r="F66">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2166,15 +2169,18 @@
         <v>22</v>
       </c>
       <c r="D67">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="E67">
+        <v>23</v>
       </c>
       <c r="F67">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2188,15 +2194,18 @@
         <v>24</v>
       </c>
       <c r="D68">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="E68">
+        <v>36</v>
       </c>
       <c r="F68">
         <f>Table1[[#This Row],[Estimation(en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Reste à faire(en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,7 +2239,7 @@
       </c>
       <c r="B72">
         <f>SUM(Table1[Estimation(en min)])</f>
-        <v>1301</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2239,7 +2248,7 @@
       </c>
       <c r="B73">
         <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>1221</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,7 +2257,7 @@
       </c>
       <c r="B74">
         <f>SUM(Table1[Reste à faire(en min)])</f>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2257,7 +2266,7 @@
       </c>
       <c r="B75" s="1">
         <f>B73/(B74+B73)</f>
-        <v>0.93850883935434282</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
